--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-410792.5688492788</v>
+        <v>-413576.2309121508</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9602625.103591375</v>
+        <v>9602625.103591377</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>87.05142705643586</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>38.19053515138899</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="W2" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.706435492193827</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>38.9630983240613</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>7.203367682519206</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>127.67455768732</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>414.4606936722161</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>330.8512206094736</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>37.18272680837378</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>96.97508139339277</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>189.83199551573</v>
       </c>
       <c r="T5" t="n">
-        <v>219.4098026417537</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8842422567866</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.18525684802346</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>163.3147149802815</v>
       </c>
       <c r="T6" t="n">
         <v>198.3487638358964</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9117417405136</v>
+        <v>150.3340452924317</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>225.6299060878678</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>144.0916485862174</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.5844277559869</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>54.53382395685533</v>
       </c>
       <c r="R7" t="n">
-        <v>160.3100917753592</v>
+        <v>160.3100917753593</v>
       </c>
       <c r="S7" t="n">
-        <v>217.434110099918</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.77579019914187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>38.14888646394729</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>93.61007680563492</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>43.16288100277472</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>8.546296656422978</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>130.0699043528478</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.8657112697145</v>
+        <v>410.8657112697144</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.41743524383054</v>
+        <v>39.41743524383048</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>107.9113340187248</v>
+        <v>4.451497455841348</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9906908082028</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.000682134847</v>
       </c>
       <c r="H13" t="n">
-        <v>144.5316208284183</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>95.59680932991456</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>87.8023907591337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.3311455127558</v>
+        <v>32.1483689634581</v>
       </c>
       <c r="T13" t="n">
         <v>219.441592200122</v>
@@ -1585,7 +1585,7 @@
         <v>286.2104676897484</v>
       </c>
       <c r="V13" t="n">
-        <v>17.76057778074634</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516708</v>
+        <v>91.93034877516529</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>200.6028050067862</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>250.9345864167827</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>10.50638820617081</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
         <v>218.097472392356</v>
@@ -1822,7 +1822,7 @@
         <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>94.09052822400112</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1859,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H17" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>91.93034877516573</v>
+        <v>91.93034877516567</v>
       </c>
       <c r="T17" t="n">
-        <v>200.6028050067863</v>
+        <v>200.6028050067862</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9345864167828</v>
+        <v>250.9345864167827</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>202.0003321699064</v>
+        <v>98.47816186429556</v>
       </c>
       <c r="U19" t="n">
         <v>286.1933087134791</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,10 +2096,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H20" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>91.93034877516573</v>
+        <v>91.93034877516567</v>
       </c>
       <c r="T20" t="n">
-        <v>200.6028050067863</v>
+        <v>200.6028050067862</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9345864167828</v>
+        <v>250.9345864167827</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.48102991756286</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>183.8488525946973</v>
@@ -2293,7 +2293,7 @@
         <v>218.097472392356</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1933087134791</v>
+        <v>152.0975868203764</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,10 +2333,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H23" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.3803783660549</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.93034877516573</v>
+        <v>91.93034877516565</v>
       </c>
       <c r="T23" t="n">
-        <v>200.6028050067863</v>
+        <v>200.6028050067862</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9345864167828</v>
+        <v>250.9345864167827</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>106.090344860972</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.6861009032421</v>
+        <v>105.9273871976661</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.7347076965136</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>73.65767465442966</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.8488525946972</v>
       </c>
       <c r="T25" t="n">
-        <v>218.097472392356</v>
+        <v>218.0974723923559</v>
       </c>
       <c r="U25" t="n">
         <v>286.1933087134791</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>115.5487897493211</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>132.826645284664</v>
       </c>
       <c r="U28" t="n">
         <v>286.1933087134791</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6861009032421</v>
+        <v>80.4152737955507</v>
       </c>
       <c r="H31" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S31" t="n">
         <v>183.8488525946973</v>
@@ -3004,7 +3004,7 @@
         <v>218.097472392356</v>
       </c>
       <c r="U31" t="n">
-        <v>56.38066625101685</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295167</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453207</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="35">
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453049</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221614</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3509,7 +3509,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200476</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3566,7 +3566,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262528</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3712,7 +3712,7 @@
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651969</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
         <v>338.1208983262551</v>
@@ -3901,7 +3901,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659981</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943552</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139452994</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>404.2843284558963</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="C2" t="n">
-        <v>404.2843284558963</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="D2" t="n">
-        <v>316.3535940554561</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="E2" t="n">
-        <v>316.3535940554561</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873336</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4337,13 +4337,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>683.2303018926191</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="W2" t="n">
-        <v>404.2843284558963</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="X2" t="n">
-        <v>404.2843284558963</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2843284558963</v>
+        <v>787.1037832399832</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>407.6645878556103</v>
+        <v>440.498803876218</v>
       </c>
       <c r="C3" t="n">
-        <v>407.6645878556103</v>
+        <v>440.498803876218</v>
       </c>
       <c r="D3" t="n">
-        <v>407.6645878556103</v>
+        <v>440.498803876218</v>
       </c>
       <c r="E3" t="n">
-        <v>248.4271328501548</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="F3" t="n">
-        <v>248.4271328501548</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4413,46 +4413,46 @@
         <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>159.4923828364511</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>432.8873314017831</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N3" t="n">
-        <v>706.282279967115</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>972.7790935503988</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1101.892281584984</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>929.8882688361623</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>929.8882688361623</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>929.8882688361623</v>
       </c>
       <c r="V3" t="n">
-        <v>869.4739465776793</v>
+        <v>694.7361606044196</v>
       </c>
       <c r="W3" t="n">
-        <v>615.2365898494777</v>
+        <v>440.498803876218</v>
       </c>
       <c r="X3" t="n">
-        <v>575.8799248756784</v>
+        <v>440.498803876218</v>
       </c>
       <c r="Y3" t="n">
-        <v>575.8799248756784</v>
+        <v>440.498803876218</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
         <v>22.09252109618844</v>
@@ -4510,28 +4510,28 @@
         <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>191.7165880308942</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>191.7165880308942</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.088691568071</v>
+        <v>1625.476395013625</v>
       </c>
       <c r="C5" t="n">
-        <v>951.1261746276593</v>
+        <v>1625.476395013625</v>
       </c>
       <c r="D5" t="n">
-        <v>592.8604760209089</v>
+        <v>1625.476395013625</v>
       </c>
       <c r="E5" t="n">
-        <v>463.8962763367473</v>
+        <v>1239.688142415381</v>
       </c>
       <c r="F5" t="n">
-        <v>456.9507755875438</v>
+        <v>828.7022376257735</v>
       </c>
       <c r="G5" t="n">
-        <v>38.30361026207299</v>
+        <v>410.0550723003026</v>
       </c>
       <c r="H5" t="n">
-        <v>38.30361026207299</v>
+        <v>75.86192016952123</v>
       </c>
       <c r="I5" t="n">
-        <v>38.30361026207299</v>
+        <v>38.30361026207297</v>
       </c>
       <c r="J5" t="n">
         <v>97.22655822781883</v>
       </c>
       <c r="K5" t="n">
-        <v>306.2815872776047</v>
+        <v>306.2815872776041</v>
       </c>
       <c r="L5" t="n">
-        <v>617.90946426628</v>
+        <v>617.9094642662791</v>
       </c>
       <c r="M5" t="n">
-        <v>981.2620671527952</v>
+        <v>981.2620671527943</v>
       </c>
       <c r="N5" t="n">
-        <v>1335.862097481652</v>
+        <v>1335.862097481651</v>
       </c>
       <c r="O5" t="n">
-        <v>1625.513213017523</v>
+        <v>1625.513213017522</v>
       </c>
       <c r="P5" t="n">
-        <v>1835.049355904456</v>
+        <v>1835.049355904455</v>
       </c>
       <c r="Q5" t="n">
-        <v>1915.180513103649</v>
+        <v>1915.180513103648</v>
       </c>
       <c r="R5" t="n">
-        <v>1915.180513103649</v>
+        <v>1817.225885433555</v>
       </c>
       <c r="S5" t="n">
-        <v>1915.180513103649</v>
+        <v>1625.476395013625</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.554449829151</v>
+        <v>1625.476395013625</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.554449829151</v>
+        <v>1625.476395013625</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.554449829151</v>
+        <v>1625.476395013625</v>
       </c>
       <c r="W5" t="n">
-        <v>1693.554449829151</v>
+        <v>1625.476395013625</v>
       </c>
       <c r="X5" t="n">
-        <v>1320.088691568071</v>
+        <v>1625.476395013625</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.088691568071</v>
+        <v>1625.476395013625</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>601.984014979457</v>
+        <v>493.0100329018948</v>
       </c>
       <c r="C6" t="n">
-        <v>601.984014979457</v>
+        <v>493.0100329018948</v>
       </c>
       <c r="D6" t="n">
-        <v>453.0496053182058</v>
+        <v>344.0756232406435</v>
       </c>
       <c r="E6" t="n">
-        <v>293.8121503127503</v>
+        <v>184.838168235188</v>
       </c>
       <c r="F6" t="n">
-        <v>147.2775923396352</v>
+        <v>38.30361026207297</v>
       </c>
       <c r="G6" t="n">
-        <v>147.2775923396352</v>
+        <v>38.30361026207297</v>
       </c>
       <c r="H6" t="n">
-        <v>38.30361026207299</v>
+        <v>38.30361026207297</v>
       </c>
       <c r="I6" t="n">
-        <v>38.30361026207299</v>
+        <v>38.30361026207297</v>
       </c>
       <c r="J6" t="n">
-        <v>38.30361026207299</v>
+        <v>38.30361026207297</v>
       </c>
       <c r="K6" t="n">
-        <v>235.6848856941644</v>
+        <v>235.6848856941643</v>
       </c>
       <c r="L6" t="n">
-        <v>562.4927651617327</v>
+        <v>398.6168294147235</v>
       </c>
       <c r="M6" t="n">
-        <v>995.8413676088546</v>
+        <v>831.9654318618452</v>
       </c>
       <c r="N6" t="n">
-        <v>1456.366431481198</v>
+        <v>1292.490495734189</v>
       </c>
       <c r="O6" t="n">
-        <v>1521.035658599139</v>
+        <v>1647.365280052205</v>
       </c>
       <c r="P6" t="n">
-        <v>1788.850891650583</v>
+        <v>1915.180513103648</v>
       </c>
       <c r="Q6" t="n">
-        <v>1915.180513103649</v>
+        <v>1915.180513103648</v>
       </c>
       <c r="R6" t="n">
-        <v>1842.26611224706</v>
+        <v>1915.180513103648</v>
       </c>
       <c r="S6" t="n">
-        <v>1842.26611224706</v>
+        <v>1750.216154537708</v>
       </c>
       <c r="T6" t="n">
-        <v>1641.913825544134</v>
+        <v>1549.863867834782</v>
       </c>
       <c r="U6" t="n">
-        <v>1413.720147018363</v>
+        <v>1398.011296832326</v>
       </c>
       <c r="V6" t="n">
-        <v>1413.720147018363</v>
+        <v>1162.859188600583</v>
       </c>
       <c r="W6" t="n">
-        <v>1185.811150970012</v>
+        <v>908.6218318723816</v>
       </c>
       <c r="X6" t="n">
-        <v>977.959650764479</v>
+        <v>700.7703316668487</v>
       </c>
       <c r="Y6" t="n">
-        <v>770.1993519995251</v>
+        <v>493.0100329018948</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.30361026207299</v>
+        <v>244.037020708744</v>
       </c>
       <c r="C7" t="n">
-        <v>38.30361026207299</v>
+        <v>244.037020708744</v>
       </c>
       <c r="D7" t="n">
-        <v>38.30361026207299</v>
+        <v>244.037020708744</v>
       </c>
       <c r="E7" t="n">
-        <v>38.30361026207299</v>
+        <v>244.037020708744</v>
       </c>
       <c r="F7" t="n">
-        <v>38.30361026207299</v>
+        <v>244.037020708744</v>
       </c>
       <c r="G7" t="n">
-        <v>38.30361026207299</v>
+        <v>244.037020708744</v>
       </c>
       <c r="H7" t="n">
-        <v>38.30361026207299</v>
+        <v>244.037020708744</v>
       </c>
       <c r="I7" t="n">
-        <v>38.30361026207299</v>
+        <v>98.489900924686</v>
       </c>
       <c r="J7" t="n">
-        <v>38.30361026207299</v>
+        <v>38.30361026207297</v>
       </c>
       <c r="K7" t="n">
-        <v>59.7012337390069</v>
+        <v>59.70123373900682</v>
       </c>
       <c r="L7" t="n">
-        <v>142.6092594485243</v>
+        <v>142.6092594485242</v>
       </c>
       <c r="M7" t="n">
-        <v>240.4132710907412</v>
+        <v>240.413271090741</v>
       </c>
       <c r="N7" t="n">
-        <v>341.326338360674</v>
+        <v>341.3263383606737</v>
       </c>
       <c r="O7" t="n">
-        <v>418.5195937232029</v>
+        <v>418.5195937232026</v>
       </c>
       <c r="P7" t="n">
-        <v>461.0510770039106</v>
+        <v>461.0510770039102</v>
       </c>
       <c r="Q7" t="n">
-        <v>461.0510770039106</v>
+        <v>405.96640634042</v>
       </c>
       <c r="R7" t="n">
-        <v>299.1216913722345</v>
+        <v>244.037020708744</v>
       </c>
       <c r="S7" t="n">
-        <v>79.49127712989306</v>
+        <v>244.037020708744</v>
       </c>
       <c r="T7" t="n">
-        <v>79.49127712989306</v>
+        <v>244.037020708744</v>
       </c>
       <c r="U7" t="n">
-        <v>79.49127712989306</v>
+        <v>244.037020708744</v>
       </c>
       <c r="V7" t="n">
-        <v>79.49127712989306</v>
+        <v>244.037020708744</v>
       </c>
       <c r="W7" t="n">
-        <v>79.49127712989306</v>
+        <v>244.037020708744</v>
       </c>
       <c r="X7" t="n">
-        <v>79.49127712989306</v>
+        <v>244.037020708744</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.30361026207299</v>
+        <v>244.037020708744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.9693282917581</v>
+        <v>1293.690638606345</v>
       </c>
       <c r="C8" t="n">
-        <v>594.0068113513464</v>
+        <v>924.728121665933</v>
       </c>
       <c r="D8" t="n">
-        <v>594.0068113513464</v>
+        <v>566.4624230591826</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>566.4624230591826</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.56916835588</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>97.5418515201369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>97.5418515201369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>719.4963613211585</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1450.867466011597</v>
+        <v>1688.446241181456</v>
       </c>
       <c r="C11" t="n">
-        <v>1450.867466011597</v>
+        <v>1319.483724241044</v>
       </c>
       <c r="D11" t="n">
         <v>1319.483724241044</v>
       </c>
       <c r="E11" t="n">
-        <v>933.6954716427997</v>
+        <v>933.6954716427994</v>
       </c>
       <c r="F11" t="n">
-        <v>522.7095668531921</v>
+        <v>522.7095668531919</v>
       </c>
       <c r="G11" t="n">
         <v>107.6936968837835</v>
@@ -5036,13 +5036,13 @@
         <v>107.6936968837835</v>
       </c>
       <c r="I11" t="n">
-        <v>67.87810572839913</v>
+        <v>67.87810572839912</v>
       </c>
       <c r="J11" t="n">
-        <v>261.4638459812684</v>
+        <v>261.4638459812682</v>
       </c>
       <c r="K11" t="n">
-        <v>602.3372069399916</v>
+        <v>602.3372069399913</v>
       </c>
       <c r="L11" t="n">
         <v>1062.122515151664</v>
@@ -5051,40 +5051,40 @@
         <v>1605.391699125701</v>
       </c>
       <c r="N11" t="n">
-        <v>2162.065354845716</v>
+        <v>2162.065354845718</v>
       </c>
       <c r="O11" t="n">
-        <v>2674.381241288265</v>
+        <v>2674.381241288266</v>
       </c>
       <c r="P11" t="n">
-        <v>3077.129996661088</v>
+        <v>3077.129996661087</v>
       </c>
       <c r="Q11" t="n">
         <v>3331.404792465938</v>
       </c>
       <c r="R11" t="n">
-        <v>3393.905286419957</v>
+        <v>3393.905286419956</v>
       </c>
       <c r="S11" t="n">
-        <v>3284.903938926296</v>
+        <v>3389.408824343348</v>
       </c>
       <c r="T11" t="n">
-        <v>3284.903938926296</v>
+        <v>3389.408824343348</v>
       </c>
       <c r="U11" t="n">
-        <v>3284.903938926296</v>
+        <v>3135.882874032032</v>
       </c>
       <c r="V11" t="n">
-        <v>2953.841051582725</v>
+        <v>2804.819986688462</v>
       </c>
       <c r="W11" t="n">
-        <v>2601.072396312611</v>
+        <v>2452.051331418347</v>
       </c>
       <c r="X11" t="n">
-        <v>2227.606638051531</v>
+        <v>2078.585573157267</v>
       </c>
       <c r="Y11" t="n">
-        <v>1837.467306075719</v>
+        <v>1688.446241181456</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.0526211572205</v>
       </c>
       <c r="H12" t="n">
-        <v>85.84310090083461</v>
+        <v>85.8431009008346</v>
       </c>
       <c r="I12" t="n">
-        <v>67.87810572839913</v>
+        <v>67.87810572839912</v>
       </c>
       <c r="J12" t="n">
-        <v>114.6782781931046</v>
+        <v>116.3789794206608</v>
       </c>
       <c r="K12" t="n">
-        <v>357.7336339109589</v>
+        <v>359.4343351385152</v>
       </c>
       <c r="L12" t="n">
-        <v>730.874095722668</v>
+        <v>732.5747969502243</v>
       </c>
       <c r="M12" t="n">
-        <v>1185.668282930637</v>
+        <v>1187.368984158193</v>
       </c>
       <c r="N12" t="n">
-        <v>1666.908163907408</v>
+        <v>1668.608865134965</v>
       </c>
       <c r="O12" t="n">
-        <v>2084.928841960321</v>
+        <v>2086.629543187877</v>
       </c>
       <c r="P12" t="n">
-        <v>2401.094223208474</v>
+        <v>2402.794924436031</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.523211272773</v>
+        <v>2564.223912500329</v>
       </c>
       <c r="R12" t="n">
         <v>2564.223912500329</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>627.2813520956011</v>
+        <v>235.5555624302647</v>
       </c>
       <c r="C13" t="n">
-        <v>458.3451691676942</v>
+        <v>235.5555624302647</v>
       </c>
       <c r="D13" t="n">
-        <v>458.3451691676942</v>
+        <v>235.5555624302647</v>
       </c>
       <c r="E13" t="n">
-        <v>310.432075585301</v>
+        <v>235.5555624302647</v>
       </c>
       <c r="F13" t="n">
-        <v>310.432075585301</v>
+        <v>235.5555624302647</v>
       </c>
       <c r="G13" t="n">
-        <v>310.432075585301</v>
+        <v>67.87810572839912</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4405393949795</v>
+        <v>67.87810572839912</v>
       </c>
       <c r="I13" t="n">
-        <v>67.87810572839913</v>
+        <v>67.87810572839912</v>
       </c>
       <c r="J13" t="n">
         <v>114.7593909851534</v>
@@ -5221,28 +5221,28 @@
         <v>1953.320571962403</v>
       </c>
       <c r="R13" t="n">
-        <v>1864.631288367319</v>
+        <v>1953.320571962403</v>
       </c>
       <c r="S13" t="n">
-        <v>1673.387707041303</v>
+        <v>1920.847471999314</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.729533101785</v>
+        <v>1699.189298059797</v>
       </c>
       <c r="U13" t="n">
-        <v>1162.628050586888</v>
+        <v>1410.0878155449</v>
       </c>
       <c r="V13" t="n">
-        <v>1144.688073030579</v>
+        <v>1155.403327339013</v>
       </c>
       <c r="W13" t="n">
-        <v>855.2709029936184</v>
+        <v>865.9861573020519</v>
       </c>
       <c r="X13" t="n">
-        <v>627.2813520956011</v>
+        <v>637.9966064040345</v>
       </c>
       <c r="Y13" t="n">
-        <v>627.2813520956011</v>
+        <v>417.2040272605044</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2334.922984192268</v>
+        <v>2334.922984192267</v>
       </c>
       <c r="C14" t="n">
         <v>1965.960467251856</v>
       </c>
       <c r="D14" t="n">
-        <v>1607.694768645106</v>
+        <v>1607.694768645105</v>
       </c>
       <c r="E14" t="n">
         <v>1221.906516046861</v>
       </c>
       <c r="F14" t="n">
-        <v>810.9206112572538</v>
+        <v>810.9206112572535</v>
       </c>
       <c r="G14" t="n">
-        <v>396.6131300684015</v>
+        <v>396.6131300684014</v>
       </c>
       <c r="H14" t="n">
-        <v>106.8637681017653</v>
+        <v>106.8637681017652</v>
       </c>
       <c r="I14" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J14" t="n">
-        <v>346.8712280413478</v>
+        <v>514.2768770617008</v>
       </c>
       <c r="K14" t="n">
-        <v>776.061115128809</v>
+        <v>960.3284139507964</v>
       </c>
       <c r="L14" t="n">
-        <v>1758.895485889573</v>
+        <v>1529.678182306614</v>
       </c>
       <c r="M14" t="n">
-        <v>2424.076242585348</v>
+        <v>2194.85893900239</v>
       </c>
       <c r="N14" t="n">
-        <v>3104.634127728365</v>
+        <v>2875.416824145406</v>
       </c>
       <c r="O14" t="n">
-        <v>3733.930379071897</v>
+        <v>3504.713075488939</v>
       </c>
       <c r="P14" t="n">
-        <v>4236.519169451313</v>
+        <v>4007.301865868355</v>
       </c>
       <c r="Q14" t="n">
-        <v>4565.769673605837</v>
+        <v>4546.744210776184</v>
       </c>
       <c r="R14" t="n">
-        <v>4717.916770439023</v>
+        <v>4717.916770439021</v>
       </c>
       <c r="S14" t="n">
         <v>4625.057832282288</v>
       </c>
       <c r="T14" t="n">
-        <v>4422.428736315838</v>
+        <v>4422.428736315837</v>
       </c>
       <c r="U14" t="n">
-        <v>4168.959457106967</v>
+        <v>4168.959457106966</v>
       </c>
       <c r="V14" t="n">
-        <v>3837.896569763396</v>
+        <v>3837.896569763395</v>
       </c>
       <c r="W14" t="n">
         <v>3485.127914493281</v>
       </c>
       <c r="X14" t="n">
-        <v>3111.662156232202</v>
+        <v>3111.662156232201</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.52282425639</v>
+        <v>2721.522824256389</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>468.3110248703088</v>
       </c>
       <c r="F15" t="n">
-        <v>321.7764668971938</v>
+        <v>321.7764668971937</v>
       </c>
       <c r="G15" t="n">
-        <v>185.8226612101446</v>
+        <v>185.8226612101445</v>
       </c>
       <c r="H15" t="n">
-        <v>99.27368985543603</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I15" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J15" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="K15" t="n">
         <v>397.3993847586448</v>
       </c>
       <c r="L15" t="n">
-        <v>397.3993847586448</v>
+        <v>851.1980143529722</v>
       </c>
       <c r="M15" t="n">
-        <v>946.3178493689339</v>
+        <v>1400.116478963261</v>
       </c>
       <c r="N15" t="n">
-        <v>1524.173197295336</v>
+        <v>1977.971826889664</v>
       </c>
       <c r="O15" t="n">
-        <v>2030.578152243586</v>
+        <v>2484.376781837914</v>
       </c>
       <c r="P15" t="n">
-        <v>2417.679707795742</v>
+        <v>2484.376781837914</v>
       </c>
       <c r="Q15" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R15" t="n">
         <v>2565.022116757453</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.8764441671772</v>
+        <v>578.5673098011432</v>
       </c>
       <c r="C16" t="n">
-        <v>542.9402612392703</v>
+        <v>409.6311268732363</v>
       </c>
       <c r="D16" t="n">
-        <v>532.3277478997038</v>
+        <v>409.6311268732363</v>
       </c>
       <c r="E16" t="n">
-        <v>384.4146543173107</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="F16" t="n">
-        <v>237.5247068194003</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="G16" t="n">
-        <v>237.5247068194003</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="H16" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="I16" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J16" t="n">
-        <v>163.2581048092507</v>
+        <v>163.2581048092553</v>
       </c>
       <c r="K16" t="n">
-        <v>406.318427820642</v>
+        <v>406.3184278206462</v>
       </c>
       <c r="L16" t="n">
-        <v>772.8783931378676</v>
+        <v>772.8783931378719</v>
       </c>
       <c r="M16" t="n">
-        <v>1169.75360415979</v>
+        <v>1169.753604159795</v>
       </c>
       <c r="N16" t="n">
-        <v>1562.626626145178</v>
+        <v>1562.626626145183</v>
       </c>
       <c r="O16" t="n">
-        <v>1909.492154775449</v>
+        <v>1909.492154775454</v>
       </c>
       <c r="P16" t="n">
-        <v>2182.77485516151</v>
+        <v>2182.774855161515</v>
       </c>
       <c r="Q16" t="n">
-        <v>2288.546551401335</v>
+        <v>2288.546551401339</v>
       </c>
       <c r="R16" t="n">
-        <v>2214.144859831204</v>
+        <v>2288.546551401339</v>
       </c>
       <c r="S16" t="n">
-        <v>2214.144859831204</v>
+        <v>2102.840639689523</v>
       </c>
       <c r="T16" t="n">
-        <v>1993.844382667208</v>
+        <v>1882.540162525528</v>
       </c>
       <c r="U16" t="n">
-        <v>1704.760232451572</v>
+        <v>1593.456012309892</v>
       </c>
       <c r="V16" t="n">
-        <v>1450.075744245685</v>
+        <v>1498.415074709891</v>
       </c>
       <c r="W16" t="n">
-        <v>1160.658574208725</v>
+        <v>1208.99790467293</v>
       </c>
       <c r="X16" t="n">
-        <v>932.6690233107072</v>
+        <v>981.0083537749131</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.8764441671772</v>
+        <v>760.2157746313829</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2334.922984192268</v>
+        <v>2334.922984192267</v>
       </c>
       <c r="C17" t="n">
         <v>1965.960467251856</v>
       </c>
       <c r="D17" t="n">
-        <v>1607.694768645106</v>
+        <v>1607.694768645105</v>
       </c>
       <c r="E17" t="n">
         <v>1221.906516046861</v>
       </c>
       <c r="F17" t="n">
-        <v>810.9206112572538</v>
+        <v>810.9206112572533</v>
       </c>
       <c r="G17" t="n">
-        <v>396.6131300684015</v>
+        <v>396.6131300684012</v>
       </c>
       <c r="H17" t="n">
-        <v>106.8637681017653</v>
+        <v>106.8637681017652</v>
       </c>
       <c r="I17" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="J17" t="n">
         <v>346.8712280413478</v>
@@ -5534,31 +5534,31 @@
         <v>4268.052965204271</v>
       </c>
       <c r="Q17" t="n">
-        <v>4611.803466450439</v>
+        <v>4597.303469358795</v>
       </c>
       <c r="R17" t="n">
-        <v>4717.916770439023</v>
+        <v>4717.91677043902</v>
       </c>
       <c r="S17" t="n">
-        <v>4625.05783228229</v>
+        <v>4625.057832282287</v>
       </c>
       <c r="T17" t="n">
-        <v>4422.428736315839</v>
+        <v>4422.428736315836</v>
       </c>
       <c r="U17" t="n">
-        <v>4168.959457106967</v>
+        <v>4168.959457106965</v>
       </c>
       <c r="V17" t="n">
-        <v>3837.896569763397</v>
+        <v>3837.896569763395</v>
       </c>
       <c r="W17" t="n">
-        <v>3485.127914493282</v>
+        <v>3485.127914493281</v>
       </c>
       <c r="X17" t="n">
-        <v>3111.662156232202</v>
+        <v>3111.662156232201</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.52282425639</v>
+        <v>2721.522824256389</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>468.3110248703088</v>
       </c>
       <c r="F18" t="n">
-        <v>321.7764668971938</v>
+        <v>321.7764668971937</v>
       </c>
       <c r="G18" t="n">
-        <v>185.8226612101446</v>
+        <v>185.8226612101445</v>
       </c>
       <c r="H18" t="n">
-        <v>99.27368985543603</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I18" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="J18" t="n">
-        <v>94.35833540878046</v>
+        <v>225.9354374172501</v>
       </c>
       <c r="K18" t="n">
-        <v>397.3993847586448</v>
+        <v>528.9764867671145</v>
       </c>
       <c r="L18" t="n">
-        <v>851.1980143529722</v>
+        <v>982.7751163614419</v>
       </c>
       <c r="M18" t="n">
-        <v>860.047338288845</v>
+        <v>1480.7618138828</v>
       </c>
       <c r="N18" t="n">
-        <v>1437.902686215247</v>
+        <v>2058.617161809203</v>
       </c>
       <c r="O18" t="n">
-        <v>1944.307641163497</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="P18" t="n">
-        <v>2331.409196715653</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="Q18" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R18" t="n">
         <v>2565.022116757453</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>875.5738967113894</v>
+        <v>725.4572572990537</v>
       </c>
       <c r="C19" t="n">
-        <v>706.6377137834825</v>
+        <v>556.5210743711466</v>
       </c>
       <c r="D19" t="n">
-        <v>556.5210743711467</v>
+        <v>556.5210743711466</v>
       </c>
       <c r="E19" t="n">
-        <v>408.6079807887536</v>
+        <v>408.6079807887535</v>
       </c>
       <c r="F19" t="n">
         <v>261.7180332908432</v>
       </c>
       <c r="G19" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="H19" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="I19" t="n">
-        <v>94.35833540878046</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="J19" t="n">
         <v>163.2581048092509</v>
@@ -5677,7 +5677,7 @@
         <v>406.3184278206418</v>
       </c>
       <c r="L19" t="n">
-        <v>772.8783931378675</v>
+        <v>772.8783931378674</v>
       </c>
       <c r="M19" t="n">
         <v>1169.75360415979</v>
@@ -5692,31 +5692,31 @@
         <v>2182.77485516151</v>
       </c>
       <c r="Q19" t="n">
-        <v>2288.546551401335</v>
+        <v>2288.546551401339</v>
       </c>
       <c r="R19" t="n">
-        <v>2288.546551401335</v>
+        <v>2288.546551401339</v>
       </c>
       <c r="S19" t="n">
-        <v>2288.546551401335</v>
+        <v>2288.546551401339</v>
       </c>
       <c r="T19" t="n">
-        <v>2084.505811835773</v>
+        <v>2189.073660629324</v>
       </c>
       <c r="U19" t="n">
-        <v>1795.421661620137</v>
+        <v>1899.989510413689</v>
       </c>
       <c r="V19" t="n">
-        <v>1795.421661620137</v>
+        <v>1645.305022207802</v>
       </c>
       <c r="W19" t="n">
-        <v>1506.004491583177</v>
+        <v>1355.887852170841</v>
       </c>
       <c r="X19" t="n">
-        <v>1278.014940685159</v>
+        <v>1127.898301272824</v>
       </c>
       <c r="Y19" t="n">
-        <v>1057.222361541629</v>
+        <v>907.1057221292934</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>2334.922984192267</v>
       </c>
       <c r="C20" t="n">
-        <v>1965.960467251856</v>
+        <v>1965.960467251855</v>
       </c>
       <c r="D20" t="n">
-        <v>1607.694768645106</v>
+        <v>1607.694768645105</v>
       </c>
       <c r="E20" t="n">
         <v>1221.906516046861</v>
       </c>
       <c r="F20" t="n">
-        <v>810.9206112572538</v>
+        <v>810.9206112572534</v>
       </c>
       <c r="G20" t="n">
-        <v>396.6131300684015</v>
+        <v>396.6131300684012</v>
       </c>
       <c r="H20" t="n">
-        <v>106.8637681017653</v>
+        <v>106.8637681017652</v>
       </c>
       <c r="I20" t="n">
-        <v>94.35833540878048</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="J20" t="n">
         <v>514.2768770617008</v>
@@ -5759,40 +5759,40 @@
         <v>1512.81653250498</v>
       </c>
       <c r="M20" t="n">
-        <v>2470.110035429952</v>
+        <v>2177.997289200755</v>
       </c>
       <c r="N20" t="n">
-        <v>3150.667920572969</v>
+        <v>2858.555174343772</v>
       </c>
       <c r="O20" t="n">
-        <v>3779.964171916501</v>
+        <v>3487.851425687304</v>
       </c>
       <c r="P20" t="n">
-        <v>4282.552962295917</v>
+        <v>4007.301865868354</v>
       </c>
       <c r="Q20" t="n">
-        <v>4611.80346645044</v>
+        <v>4546.744210776184</v>
       </c>
       <c r="R20" t="n">
-        <v>4717.916770439024</v>
+        <v>4717.91677043902</v>
       </c>
       <c r="S20" t="n">
-        <v>4625.057832282291</v>
+        <v>4625.057832282288</v>
       </c>
       <c r="T20" t="n">
-        <v>4422.42873631584</v>
+        <v>4422.428736315836</v>
       </c>
       <c r="U20" t="n">
-        <v>4168.959457106968</v>
+        <v>4168.959457106965</v>
       </c>
       <c r="V20" t="n">
-        <v>3837.896569763398</v>
+        <v>3837.896569763394</v>
       </c>
       <c r="W20" t="n">
-        <v>3485.127914493281</v>
+        <v>3485.12791449328</v>
       </c>
       <c r="X20" t="n">
-        <v>3111.662156232201</v>
+        <v>3111.6621562322</v>
       </c>
       <c r="Y20" t="n">
         <v>2721.522824256389</v>
@@ -5817,40 +5817,40 @@
         <v>468.3110248703088</v>
       </c>
       <c r="F21" t="n">
-        <v>321.7764668971938</v>
+        <v>321.7764668971937</v>
       </c>
       <c r="G21" t="n">
-        <v>185.8226612101446</v>
+        <v>185.8226612101445</v>
       </c>
       <c r="H21" t="n">
-        <v>99.27368985543603</v>
+        <v>99.27368985543598</v>
       </c>
       <c r="I21" t="n">
-        <v>94.35833540878048</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="J21" t="n">
-        <v>225.9354374172501</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="K21" t="n">
-        <v>528.9764867671145</v>
+        <v>397.3993847586448</v>
       </c>
       <c r="L21" t="n">
-        <v>528.9764867671145</v>
+        <v>851.1980143529722</v>
       </c>
       <c r="M21" t="n">
-        <v>1077.894951377404</v>
+        <v>1400.116478963261</v>
       </c>
       <c r="N21" t="n">
-        <v>1655.750299303806</v>
+        <v>1977.971826889664</v>
       </c>
       <c r="O21" t="n">
-        <v>1944.307641163497</v>
+        <v>2484.376781837914</v>
       </c>
       <c r="P21" t="n">
-        <v>2331.409196715653</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="Q21" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R21" t="n">
         <v>2565.022116757453</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.7708556310859</v>
+        <v>554.3739833297002</v>
       </c>
       <c r="C22" t="n">
-        <v>411.834672703179</v>
+        <v>385.4378004017934</v>
       </c>
       <c r="D22" t="n">
-        <v>261.7180332908433</v>
+        <v>385.4378004017934</v>
       </c>
       <c r="E22" t="n">
-        <v>261.7180332908433</v>
+        <v>237.5247068194003</v>
       </c>
       <c r="F22" t="n">
-        <v>261.7180332908432</v>
+        <v>237.5247068194003</v>
       </c>
       <c r="G22" t="n">
-        <v>94.35833540878048</v>
+        <v>237.5247068194003</v>
       </c>
       <c r="H22" t="n">
-        <v>94.35833540878048</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="I22" t="n">
-        <v>94.35833540878048</v>
+        <v>94.35833540878041</v>
       </c>
       <c r="J22" t="n">
-        <v>163.2581048092509</v>
+        <v>163.2581048092508</v>
       </c>
       <c r="K22" t="n">
-        <v>406.3184278206418</v>
+        <v>406.3184278206417</v>
       </c>
       <c r="L22" t="n">
-        <v>772.8783931378675</v>
+        <v>772.8783931378674</v>
       </c>
       <c r="M22" t="n">
         <v>1169.75360415979</v>
       </c>
       <c r="N22" t="n">
-        <v>1562.626626145179</v>
+        <v>1562.626626145178</v>
       </c>
       <c r="O22" t="n">
         <v>1909.492154775449</v>
@@ -5932,28 +5932,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R22" t="n">
-        <v>2222.40409693915</v>
+        <v>2288.546551401335</v>
       </c>
       <c r="S22" t="n">
-        <v>2036.698185227335</v>
+        <v>2102.840639689519</v>
       </c>
       <c r="T22" t="n">
-        <v>1816.397708063339</v>
+        <v>1882.540162525523</v>
       </c>
       <c r="U22" t="n">
-        <v>1527.313557847703</v>
+        <v>1728.906236444335</v>
       </c>
       <c r="V22" t="n">
-        <v>1272.629069641816</v>
+        <v>1474.221748238448</v>
       </c>
       <c r="W22" t="n">
-        <v>983.2118996048557</v>
+        <v>1184.804578201487</v>
       </c>
       <c r="X22" t="n">
-        <v>983.2118996048557</v>
+        <v>956.8150273034701</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.4193204613256</v>
+        <v>736.0224481599399</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2334.922984192267</v>
+        <v>2334.922984192268</v>
       </c>
       <c r="C23" t="n">
-        <v>1965.960467251855</v>
+        <v>1965.960467251857</v>
       </c>
       <c r="D23" t="n">
-        <v>1607.694768645105</v>
+        <v>1607.694768645106</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.90651604686</v>
+        <v>1221.906516046862</v>
       </c>
       <c r="F23" t="n">
-        <v>810.9206112572529</v>
+        <v>810.9206112572541</v>
       </c>
       <c r="G23" t="n">
-        <v>396.613130068401</v>
+        <v>396.6131300684019</v>
       </c>
       <c r="H23" t="n">
         <v>106.8637681017652</v>
       </c>
       <c r="I23" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J23" t="n">
         <v>346.8712280413478</v>
@@ -5999,19 +5999,19 @@
         <v>2010.591640180402</v>
       </c>
       <c r="N23" t="n">
-        <v>2940.476079819658</v>
+        <v>2691.149525323419</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.772331163191</v>
+        <v>3697.437956117069</v>
       </c>
       <c r="P23" t="n">
-        <v>4072.361121542607</v>
+        <v>4200.026746496485</v>
       </c>
       <c r="Q23" t="n">
-        <v>4611.803466450437</v>
+        <v>4546.744210776184</v>
       </c>
       <c r="R23" t="n">
-        <v>4717.91677043902</v>
+        <v>4717.916770439021</v>
       </c>
       <c r="S23" t="n">
         <v>4625.057832282288</v>
@@ -6020,19 +6020,19 @@
         <v>4422.428736315836</v>
       </c>
       <c r="U23" t="n">
-        <v>4168.959457106966</v>
+        <v>4168.959457106967</v>
       </c>
       <c r="V23" t="n">
-        <v>3837.896569763395</v>
+        <v>3837.896569763396</v>
       </c>
       <c r="W23" t="n">
         <v>3485.127914493281</v>
       </c>
       <c r="X23" t="n">
-        <v>3111.662156232201</v>
+        <v>3111.662156232202</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.522824256389</v>
+        <v>2721.52282425639</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>99.27368985543598</v>
       </c>
       <c r="I24" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J24" t="n">
-        <v>225.9354374172501</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="K24" t="n">
-        <v>528.9764867671145</v>
+        <v>397.3993847586448</v>
       </c>
       <c r="L24" t="n">
-        <v>982.7751163614419</v>
+        <v>851.1980143529722</v>
       </c>
       <c r="M24" t="n">
-        <v>1531.693580971731</v>
+        <v>1400.116478963261</v>
       </c>
       <c r="N24" t="n">
-        <v>2109.548928898133</v>
+        <v>1977.971826889664</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.409196715653</v>
+        <v>2484.376781837914</v>
       </c>
       <c r="P24" t="n">
-        <v>2331.409196715653</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="Q24" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R24" t="n">
         <v>2565.022116757453</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>832.6192218050859</v>
+        <v>344.5220676251236</v>
       </c>
       <c r="C25" t="n">
-        <v>663.683038877179</v>
+        <v>344.5220676251236</v>
       </c>
       <c r="D25" t="n">
-        <v>556.5210743711467</v>
+        <v>344.5220676251236</v>
       </c>
       <c r="E25" t="n">
-        <v>408.6079807887536</v>
+        <v>344.5220676251236</v>
       </c>
       <c r="F25" t="n">
-        <v>261.7180332908432</v>
+        <v>344.5220676251236</v>
       </c>
       <c r="G25" t="n">
-        <v>94.35833540878041</v>
+        <v>237.5247068194002</v>
       </c>
       <c r="H25" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="I25" t="n">
-        <v>94.35833540878041</v>
+        <v>94.35833540878042</v>
       </c>
       <c r="J25" t="n">
         <v>163.2581048092509</v>
       </c>
       <c r="K25" t="n">
-        <v>406.3184278206418</v>
+        <v>406.3184278206419</v>
       </c>
       <c r="L25" t="n">
-        <v>772.8783931378674</v>
+        <v>772.8783931378676</v>
       </c>
       <c r="M25" t="n">
         <v>1169.75360415979</v>
       </c>
       <c r="N25" t="n">
-        <v>1562.626626145178</v>
+        <v>1562.626626145179</v>
       </c>
       <c r="O25" t="n">
         <v>1909.492154775449</v>
@@ -6166,31 +6166,31 @@
         <v>2182.77485516151</v>
       </c>
       <c r="Q25" t="n">
-        <v>2288.546551401334</v>
+        <v>2288.546551401335</v>
       </c>
       <c r="R25" t="n">
-        <v>2288.546551401334</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S25" t="n">
-        <v>2288.546551401334</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T25" t="n">
-        <v>2068.246074237339</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U25" t="n">
-        <v>1779.161924021703</v>
+        <v>1519.054320739757</v>
       </c>
       <c r="V25" t="n">
-        <v>1524.477435815816</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W25" t="n">
-        <v>1235.060265778856</v>
+        <v>974.9526624969108</v>
       </c>
       <c r="X25" t="n">
-        <v>1235.060265778856</v>
+        <v>746.9631115988934</v>
       </c>
       <c r="Y25" t="n">
-        <v>1014.267686635326</v>
+        <v>526.1705324553633</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1607.694768645106</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.906516046861</v>
+        <v>1221.906516046862</v>
       </c>
       <c r="F26" t="n">
-        <v>810.9206112572538</v>
+        <v>810.9206112572547</v>
       </c>
       <c r="G26" t="n">
-        <v>396.6131300684015</v>
+        <v>396.6131300684019</v>
       </c>
       <c r="H26" t="n">
         <v>106.8637681017653</v>
@@ -6224,34 +6224,34 @@
         <v>94.35833540878045</v>
       </c>
       <c r="J26" t="n">
-        <v>346.8712280413478</v>
+        <v>514.2768770617008</v>
       </c>
       <c r="K26" t="n">
-        <v>790.561112220453</v>
+        <v>960.3284139507973</v>
       </c>
       <c r="L26" t="n">
-        <v>1359.910880576271</v>
+        <v>1529.678182306615</v>
       </c>
       <c r="M26" t="n">
-        <v>2470.110035429951</v>
+        <v>2194.858939002391</v>
       </c>
       <c r="N26" t="n">
-        <v>3150.667920572967</v>
+        <v>2875.416824145407</v>
       </c>
       <c r="O26" t="n">
-        <v>3779.964171916499</v>
+        <v>3504.713075488939</v>
       </c>
       <c r="P26" t="n">
-        <v>4282.552962295915</v>
+        <v>4007.301865868355</v>
       </c>
       <c r="Q26" t="n">
-        <v>4611.803466450438</v>
+        <v>4546.744210776185</v>
       </c>
       <c r="R26" t="n">
         <v>4717.916770439022</v>
       </c>
       <c r="S26" t="n">
-        <v>4625.057832282289</v>
+        <v>4625.057832282288</v>
       </c>
       <c r="T26" t="n">
         <v>4422.428736315838</v>
@@ -6309,16 +6309,16 @@
         <v>528.9764867671145</v>
       </c>
       <c r="L27" t="n">
-        <v>982.7751163614419</v>
+        <v>817.533828626806</v>
       </c>
       <c r="M27" t="n">
-        <v>1531.693580971731</v>
+        <v>1366.452293237095</v>
       </c>
       <c r="N27" t="n">
-        <v>1825.004241767403</v>
+        <v>1944.307641163497</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.409196715653</v>
+        <v>1944.307641163497</v>
       </c>
       <c r="P27" t="n">
         <v>2331.409196715653</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>824.9301480710651</v>
+        <v>430.6542162187505</v>
       </c>
       <c r="C28" t="n">
-        <v>655.9939651431582</v>
+        <v>261.7180332908436</v>
       </c>
       <c r="D28" t="n">
-        <v>505.8773257308225</v>
+        <v>261.7180332908436</v>
       </c>
       <c r="E28" t="n">
-        <v>357.9642321484293</v>
+        <v>261.7180332908436</v>
       </c>
       <c r="F28" t="n">
-        <v>211.074284650519</v>
+        <v>261.7180332908435</v>
       </c>
       <c r="G28" t="n">
         <v>94.35833540878045</v>
@@ -6382,13 +6382,13 @@
         <v>94.35833540878045</v>
       </c>
       <c r="J28" t="n">
-        <v>163.2581048092509</v>
+        <v>163.2581048092508</v>
       </c>
       <c r="K28" t="n">
         <v>406.3184278206418</v>
       </c>
       <c r="L28" t="n">
-        <v>772.8783931378675</v>
+        <v>772.8783931378673</v>
       </c>
       <c r="M28" t="n">
         <v>1169.75360415979</v>
@@ -6406,28 +6406,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R28" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S28" t="n">
-        <v>2288.546551401335</v>
+        <v>2028.438948119388</v>
       </c>
       <c r="T28" t="n">
-        <v>2288.546551401335</v>
+        <v>1894.270619549021</v>
       </c>
       <c r="U28" t="n">
-        <v>1999.4624011857</v>
+        <v>1605.186469333385</v>
       </c>
       <c r="V28" t="n">
-        <v>1744.777912979813</v>
+        <v>1350.501981127498</v>
       </c>
       <c r="W28" t="n">
-        <v>1455.360742942852</v>
+        <v>1061.084811090538</v>
       </c>
       <c r="X28" t="n">
-        <v>1227.371192044835</v>
+        <v>833.0952601925203</v>
       </c>
       <c r="Y28" t="n">
-        <v>1006.578612901305</v>
+        <v>612.3026810489902</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>94.35833540878045</v>
       </c>
       <c r="J29" t="n">
-        <v>514.2768770617008</v>
+        <v>420.4264091711897</v>
       </c>
       <c r="K29" t="n">
-        <v>943.466764149162</v>
+        <v>1170.520254704104</v>
       </c>
       <c r="L29" t="n">
-        <v>1512.81653250498</v>
+        <v>1739.870023059922</v>
       </c>
       <c r="M29" t="n">
-        <v>2177.997289200755</v>
+        <v>2405.050779755697</v>
       </c>
       <c r="N29" t="n">
-        <v>2858.555174343772</v>
+        <v>3085.608664898714</v>
       </c>
       <c r="O29" t="n">
-        <v>3779.964171916499</v>
+        <v>3714.904916242246</v>
       </c>
       <c r="P29" t="n">
-        <v>4282.552962295915</v>
+        <v>4217.493706621662</v>
       </c>
       <c r="Q29" t="n">
-        <v>4611.803466450438</v>
+        <v>4546.744210776185</v>
       </c>
       <c r="R29" t="n">
         <v>4717.916770439022</v>
@@ -6552,16 +6552,16 @@
         <v>1531.693580971731</v>
       </c>
       <c r="N30" t="n">
-        <v>1531.693580971731</v>
+        <v>2109.548928898133</v>
       </c>
       <c r="O30" t="n">
-        <v>2038.098535919981</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="P30" t="n">
-        <v>2425.200091472137</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="Q30" t="n">
-        <v>2540.257138726933</v>
+        <v>2565.022116757453</v>
       </c>
       <c r="R30" t="n">
         <v>2565.022116757453</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>871.8503206240989</v>
+        <v>344.522067625122</v>
       </c>
       <c r="C31" t="n">
-        <v>702.914137696192</v>
+        <v>175.5858846972151</v>
       </c>
       <c r="D31" t="n">
-        <v>552.7974982838562</v>
+        <v>175.5858846972151</v>
       </c>
       <c r="E31" t="n">
-        <v>404.884404701463</v>
+        <v>175.5858846972151</v>
       </c>
       <c r="F31" t="n">
-        <v>404.884404701463</v>
+        <v>175.585884697215</v>
       </c>
       <c r="G31" t="n">
-        <v>237.5247068194003</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="H31" t="n">
         <v>94.35833540878045</v>
@@ -6619,7 +6619,7 @@
         <v>94.35833540878045</v>
       </c>
       <c r="J31" t="n">
-        <v>163.2581048092508</v>
+        <v>163.2581048092509</v>
       </c>
       <c r="K31" t="n">
         <v>406.3184278206418</v>
@@ -6628,43 +6628,43 @@
         <v>772.8783931378675</v>
       </c>
       <c r="M31" t="n">
-        <v>1169.753604159791</v>
+        <v>1169.75360415979</v>
       </c>
       <c r="N31" t="n">
         <v>1562.626626145179</v>
       </c>
       <c r="O31" t="n">
-        <v>1909.49215477545</v>
+        <v>1909.492154775449</v>
       </c>
       <c r="P31" t="n">
         <v>2182.77485516151</v>
       </c>
       <c r="Q31" t="n">
-        <v>2288.546551401335</v>
+        <v>2288.546551401334</v>
       </c>
       <c r="R31" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S31" t="n">
-        <v>2102.840639689519</v>
+        <v>2028.438948119388</v>
       </c>
       <c r="T31" t="n">
-        <v>1882.540162525524</v>
+        <v>1808.138470955392</v>
       </c>
       <c r="U31" t="n">
-        <v>1825.589994595204</v>
+        <v>1519.054320739757</v>
       </c>
       <c r="V31" t="n">
-        <v>1570.905506389317</v>
+        <v>1264.36983253387</v>
       </c>
       <c r="W31" t="n">
-        <v>1281.488336352356</v>
+        <v>974.9526624969092</v>
       </c>
       <c r="X31" t="n">
-        <v>1053.498785454339</v>
+        <v>746.9631115988918</v>
       </c>
       <c r="Y31" t="n">
-        <v>1053.498785454339</v>
+        <v>526.1705324553617</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
         <v>766.683188695145</v>
@@ -6710,40 +6710,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6789,16 +6789,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>2143.777656741113</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.862419750212</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477739</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609069</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039826</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631541</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749469</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989795</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443604</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902779</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
@@ -6935,25 +6935,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.907144767228</v>
@@ -6965,7 +6965,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
         <v>3795.851627400162</v>
@@ -7026,16 +7026,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.315654538067</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7081,13 +7081,13 @@
         <v>501.6849958039803</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897935</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
@@ -7096,7 +7096,7 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
         <v>857.3827676902787</v>
@@ -7114,16 +7114,16 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237501</v>
@@ -7160,58 +7160,58 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X38" t="n">
         <v>2834.342818501803</v>
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
-        <v>93.82973291098881</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>396.8707822608532</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042789</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7397,16 +7397,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
         <v>337.4933016076837</v>
@@ -7415,37 +7415,37 @@
         <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>122.766616227102</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>425.8076655769663</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>879.6062951712937</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2028.720609486317</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2415.822165038473</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D43" t="n">
         <v>617.6685920609048</v>
@@ -7555,25 +7555,25 @@
         <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443606</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7591,13 +7591,13 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237502</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7631,10 +7631,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7646,22 +7646,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612703</v>
@@ -7685,13 +7685,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7737,13 +7737,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.171002464469</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O45" t="n">
-        <v>2530.879212293269</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P45" t="n">
-        <v>2530.879212293269</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q45" t="n">
         <v>2530.879212293269</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443606</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>361.0244890520116</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>173.0575064623238</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>84.27212174163051</v>
+        <v>84.27212174163057</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>205.3090970741573</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>100.7253928120076</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>82.47160950042885</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>17.03196949660037</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>46.49878065111346</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.64646170873118</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>14.64646170872868</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>295.0633800294921</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>17.03196949659952</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>251.8450045416562</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>17.64339406583332</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>14.64646170873124</v>
+        <v>17.03196949660128</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>74.29816275741598</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>295.0633800294898</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>224.6131372678352</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.0341070798541</v>
+        <v>294.034107079854</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.4598365628834</v>
       </c>
       <c r="T11" t="n">
         <v>203.6727671748029</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9906908082029</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986232</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.000682134847</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.5316208284183</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>95.59680932991446</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>87.8023907591337</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.1827765492977</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>234.3770655430817</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.190690739107176e-13</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.1090848120415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
         <v>86.13649374674407</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>158.0471150998269</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>183.8488525946973</v>
       </c>
       <c r="T19" t="n">
-        <v>16.09714022244955</v>
+        <v>119.6193105280604</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H22" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>86.13649374674407</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.176644736866855</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>134.0957218931027</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>42.52512815724039</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>59.75871370557599</v>
       </c>
       <c r="H25" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.13649374674407</v>
+        <v>86.13649374674399</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>50.137311153921</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>141.7347076965137</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.097472392356</v>
+        <v>85.27082710769196</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>85.27082710769143</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I31" t="n">
         <v>86.13649374674407</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>229.8126424624622</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-2.344791028008331e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>3.517186542012496e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>969667.0434177223</v>
+        <v>969667.0434177222</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
-        <v>240891.9009418996</v>
+        <v>240891.9009418997</v>
       </c>
       <c r="F2" t="n">
-        <v>281034.2743496943</v>
+        <v>281034.2743496946</v>
       </c>
       <c r="G2" t="n">
         <v>281034.2743496944</v>
@@ -26335,25 +26335,25 @@
         <v>281034.2743496944</v>
       </c>
       <c r="J2" t="n">
-        <v>281034.2743496945</v>
+        <v>281034.2743496944</v>
       </c>
       <c r="K2" t="n">
         <v>281034.2743496945</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="N2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524996</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>224309.4095201181</v>
+        <v>224309.4095201178</v>
       </c>
       <c r="D3" t="n">
-        <v>204847.5760334293</v>
+        <v>204847.5760334296</v>
       </c>
       <c r="E3" t="n">
-        <v>635252.773681252</v>
+        <v>635252.7736812521</v>
       </c>
       <c r="F3" t="n">
         <v>232733.7364226769</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113919</v>
+        <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>52152.6949555672</v>
+        <v>52152.69495556712</v>
       </c>
       <c r="L3" t="n">
-        <v>45097.10448223408</v>
+        <v>45097.10448223413</v>
       </c>
       <c r="M3" t="n">
-        <v>43408.60772972344</v>
+        <v>43408.6077297234</v>
       </c>
       <c r="N3" t="n">
-        <v>81071.54018658446</v>
+        <v>81071.54018658429</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>350497.5914804416</v>
       </c>
       <c r="C4" t="n">
-        <v>287962.9840578396</v>
+        <v>287962.9840578397</v>
       </c>
       <c r="D4" t="n">
-        <v>227638.2345336368</v>
+        <v>227638.2345336369</v>
       </c>
       <c r="E4" t="n">
-        <v>6729.511536456097</v>
+        <v>6729.511536456208</v>
       </c>
       <c r="F4" t="n">
-        <v>16132.36281666664</v>
+        <v>16132.3628166667</v>
       </c>
       <c r="G4" t="n">
-        <v>16132.36281666664</v>
+        <v>16132.3628166667</v>
       </c>
       <c r="H4" t="n">
-        <v>16132.36281666668</v>
+        <v>16132.36281666666</v>
       </c>
       <c r="I4" t="n">
-        <v>16132.36281666658</v>
+        <v>16132.36281666663</v>
       </c>
       <c r="J4" t="n">
-        <v>16132.36281666664</v>
+        <v>16132.36281666661</v>
       </c>
       <c r="K4" t="n">
-        <v>16132.36281666664</v>
+        <v>16132.36281666663</v>
       </c>
       <c r="L4" t="n">
+        <v>37910.0432909486</v>
+      </c>
+      <c r="M4" t="n">
         <v>37910.04329094849</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>37910.0432909486</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37910.0432909485</v>
+      </c>
+      <c r="P4" t="n">
         <v>37910.04329094848</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37910.04329094849</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37910.0432909486</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37910.0432909485</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>67304.53704836416</v>
+        <v>67304.53704836413</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,16 +26479,16 @@
         <v>75648.24442593756</v>
       </c>
       <c r="F5" t="n">
-        <v>99576.22009019183</v>
+        <v>99576.22009019181</v>
       </c>
       <c r="G5" t="n">
-        <v>99576.22009019183</v>
+        <v>99576.22009019178</v>
       </c>
       <c r="H5" t="n">
-        <v>99576.22009019184</v>
+        <v>99576.22009019178</v>
       </c>
       <c r="I5" t="n">
-        <v>99576.22009019178</v>
+        <v>99576.22009019181</v>
       </c>
       <c r="J5" t="n">
         <v>99576.22009019181</v>
@@ -26503,10 +26503,10 @@
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="O5" t="n">
-        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-240607.6929915356</v>
+        <v>-240607.6929915354</v>
       </c>
       <c r="C6" t="n">
-        <v>-292212.3111738227</v>
+        <v>-292212.3111738223</v>
       </c>
       <c r="D6" t="n">
-        <v>-227980.2691779762</v>
+        <v>-227980.2691779765</v>
       </c>
       <c r="E6" t="n">
-        <v>-476738.6287017461</v>
+        <v>-477070.5766911076</v>
       </c>
       <c r="F6" t="n">
-        <v>-67408.04497984116</v>
+        <v>-67453.2617305751</v>
       </c>
       <c r="G6" t="n">
-        <v>165325.6914428359</v>
+        <v>165280.4746921016</v>
       </c>
       <c r="H6" t="n">
-        <v>165325.6914428359</v>
+        <v>165280.4746921016</v>
       </c>
       <c r="I6" t="n">
-        <v>165325.6914428363</v>
+        <v>165280.4746921016</v>
       </c>
       <c r="J6" t="n">
-        <v>93070.99657169686</v>
+        <v>93025.77982096247</v>
       </c>
       <c r="K6" t="n">
-        <v>113172.9964872689</v>
+        <v>113127.7797365346</v>
       </c>
       <c r="L6" t="n">
-        <v>109251.0375771617</v>
+        <v>109251.0375771614</v>
       </c>
       <c r="M6" t="n">
         <v>110939.5343296723</v>
       </c>
       <c r="N6" t="n">
-        <v>73276.60187281109</v>
+        <v>73276.60187281111</v>
       </c>
       <c r="O6" t="n">
-        <v>154348.1420593956</v>
+        <v>154348.1420593955</v>
       </c>
       <c r="P6" t="n">
-        <v>154348.1420593956</v>
+        <v>154348.1420593958</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>31.61020235221406</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="M2" t="n">
-        <v>31.61020235221393</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221394</v>
@@ -26738,7 +26738,7 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>209.4584059260868</v>
+        <v>209.4584059260865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,22 +26790,22 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>478.7951282759124</v>
+        <v>478.7951282759121</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>848.4763216049892</v>
+        <v>848.4763216049889</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.479192609756</v>
+        <v>1179.479192609755</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.479192609756</v>
+        <v>1179.479192609755</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.479192609756</v>
+        <v>1179.479192609755</v>
       </c>
       <c r="I4" t="n">
         <v>1179.479192609755</v>
@@ -26817,16 +26817,16 @@
         <v>1179.479192609756</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
+        <v>1062.255112188952</v>
+      </c>
+      <c r="O4" t="n">
         <v>1062.255112188953</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>174.4371452069614</v>
+        <v>174.4371452069612</v>
       </c>
       <c r="D3" t="n">
-        <v>168.2852582909999</v>
+        <v>168.2852582910001</v>
       </c>
       <c r="E3" t="n">
-        <v>725.9666143312725</v>
+        <v>725.9666143312726</v>
       </c>
       <c r="F3" t="n">
         <v>174.4495920717636</v>
@@ -27012,16 +27012,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6386145735569</v>
+        <v>202.6386145735566</v>
       </c>
       <c r="D4" t="n">
-        <v>195.4921444786432</v>
+        <v>195.4921444786435</v>
       </c>
       <c r="E4" t="n">
-        <v>174.1890488504336</v>
+        <v>174.1890488504333</v>
       </c>
       <c r="F4" t="n">
-        <v>331.0028710047666</v>
+        <v>331.0028710047663</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,25 +27033,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023558</v>
+        <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>202.6386145735569</v>
+        <v>202.6386145735566</v>
       </c>
       <c r="L4" t="n">
-        <v>78.26806405784055</v>
+        <v>78.26806405784038</v>
       </c>
       <c r="M4" t="n">
-        <v>174.1890488504336</v>
+        <v>174.1890488504338</v>
       </c>
       <c r="N4" t="n">
-        <v>331.0028710047666</v>
+        <v>331.0028710047659</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>202.6386145735569</v>
+        <v>202.6386145735566</v>
       </c>
       <c r="L4" t="n">
-        <v>195.4921444786432</v>
+        <v>195.4921444786435</v>
       </c>
       <c r="M4" t="n">
-        <v>174.1890488504336</v>
+        <v>174.1890488504333</v>
       </c>
       <c r="N4" t="n">
-        <v>331.0028710047666</v>
+        <v>331.0028710047663</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>267.6316145642471</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27436,13 +27436,13 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>289.5617233187459</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>92.77440840818574</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>166.8098868794162</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27582,13 +27582,13 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>167.2504309812602</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>254.2558123849418</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>330.8512206094736</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>178.0129943162734</v>
+        <v>140.8302675078997</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>96.9750813933927</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>189.8319955157299</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.4098026417537</v>
       </c>
       <c r="U5" t="n">
         <v>251.278289400403</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,10 +27710,10 @@
         <v>136.8929839881998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>107.8842422567866</v>
       </c>
       <c r="I6" t="n">
-        <v>73.88485467670016</v>
+        <v>73.88485467670017</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.1852568480235</v>
       </c>
       <c r="S6" t="n">
-        <v>163.3147149802815</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>75.57769644808192</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>26.06507707305178</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>158.8689705239033</v>
       </c>
       <c r="I7" t="n">
-        <v>144.0916485862174</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>66.65495023327644</v>
+        <v>7.070522477289579</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.53382395685529</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>217.434110099918</v>
       </c>
       <c r="T7" t="n">
         <v>226.3317295793428</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>177.8088631529529</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>343.7814836083145</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>313.2659689360765</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>124.1469212562762</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>20.57645329849133</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4.651176503178812e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.447997525858227e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.651176503178812e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.697685318346743e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221417</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221628</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221412</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30520,7 +30520,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221611</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X41" t="n">
         <v>31.61020235221394</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8420438429189411</v>
+        <v>0.8420438429189401</v>
       </c>
       <c r="H5" t="n">
-        <v>8.623581506293608</v>
+        <v>8.623581506293597</v>
       </c>
       <c r="I5" t="n">
-        <v>32.4628952541325</v>
+        <v>32.46289525413247</v>
       </c>
       <c r="J5" t="n">
-        <v>71.46741861294154</v>
+        <v>71.46741861294146</v>
       </c>
       <c r="K5" t="n">
-        <v>107.1111344837003</v>
+        <v>107.1111344837002</v>
       </c>
       <c r="L5" t="n">
-        <v>132.8808337414309</v>
+        <v>132.8808337414307</v>
       </c>
       <c r="M5" t="n">
-        <v>147.8555309329406</v>
+        <v>147.8555309329404</v>
       </c>
       <c r="N5" t="n">
-        <v>150.2479880016341</v>
+        <v>150.2479880016339</v>
       </c>
       <c r="O5" t="n">
-        <v>141.8749145386088</v>
+        <v>141.8749145386087</v>
       </c>
       <c r="P5" t="n">
-        <v>121.0869571665475</v>
+        <v>121.0869571665473</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.93126204201286</v>
+        <v>90.93126204201275</v>
       </c>
       <c r="R5" t="n">
-        <v>52.89403654775698</v>
+        <v>52.89403654775692</v>
       </c>
       <c r="S5" t="n">
-        <v>19.18807407051539</v>
+        <v>19.18807407051537</v>
       </c>
       <c r="T5" t="n">
-        <v>3.686046922377666</v>
+        <v>3.686046922377662</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06736350743351527</v>
+        <v>0.06736350743351519</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4505331750108281</v>
+        <v>0.4505331750108276</v>
       </c>
       <c r="H6" t="n">
-        <v>4.351201979709841</v>
+        <v>4.351201979709836</v>
       </c>
       <c r="I6" t="n">
-        <v>15.51177817471492</v>
+        <v>15.5117781747149</v>
       </c>
       <c r="J6" t="n">
-        <v>42.56550492503619</v>
+        <v>42.56550492503613</v>
       </c>
       <c r="K6" t="n">
-        <v>72.75122765076166</v>
+        <v>72.75122765076158</v>
       </c>
       <c r="L6" t="n">
-        <v>97.82300363557478</v>
+        <v>97.82300363557465</v>
       </c>
       <c r="M6" t="n">
-        <v>114.1548312297173</v>
+        <v>114.1548312297171</v>
       </c>
       <c r="N6" t="n">
-        <v>117.1761699340662</v>
+        <v>117.1761699340661</v>
       </c>
       <c r="O6" t="n">
-        <v>107.193303266721</v>
+        <v>107.1933032667209</v>
       </c>
       <c r="P6" t="n">
-        <v>86.03207620009402</v>
+        <v>86.03207620009391</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.51016458559273</v>
+        <v>57.51016458559266</v>
       </c>
       <c r="R6" t="n">
-        <v>27.97257730461967</v>
+        <v>27.97257730461964</v>
       </c>
       <c r="S6" t="n">
-        <v>8.368456123556385</v>
+        <v>8.368456123556376</v>
       </c>
       <c r="T6" t="n">
-        <v>1.815964858925223</v>
+        <v>1.815964858925221</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0296403404612387</v>
+        <v>0.02964034046123867</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3777118795388449</v>
+        <v>0.3777118795388444</v>
       </c>
       <c r="H7" t="n">
-        <v>3.358201983536278</v>
+        <v>3.358201983536274</v>
       </c>
       <c r="I7" t="n">
-        <v>11.3588263410409</v>
+        <v>11.35882634104089</v>
       </c>
       <c r="J7" t="n">
-        <v>26.70422988339633</v>
+        <v>26.7042298833963</v>
       </c>
       <c r="K7" t="n">
-        <v>43.88325291369488</v>
+        <v>43.88325291369483</v>
       </c>
       <c r="L7" t="n">
-        <v>56.15545525434792</v>
+        <v>56.15545525434785</v>
       </c>
       <c r="M7" t="n">
-        <v>59.20805398989366</v>
+        <v>59.20805398989359</v>
       </c>
       <c r="N7" t="n">
-        <v>57.80021880252165</v>
+        <v>57.80021880252158</v>
       </c>
       <c r="O7" t="n">
-        <v>53.38785730063603</v>
+        <v>53.38785730063596</v>
       </c>
       <c r="P7" t="n">
-        <v>45.68253495804355</v>
+        <v>45.6825349580435</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.6282192948391</v>
+        <v>31.62821929483906</v>
       </c>
       <c r="R7" t="n">
-        <v>16.98329960181024</v>
+        <v>16.98329960181022</v>
       </c>
       <c r="S7" t="n">
-        <v>6.582487937054232</v>
+        <v>6.582487937054223</v>
       </c>
       <c r="T7" t="n">
-        <v>1.613859848938701</v>
+        <v>1.613859848938699</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02060246615666429</v>
+        <v>0.02060246615666427</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>81.73703477928888</v>
       </c>
       <c r="J12" t="n">
-        <v>174.1105281461672</v>
+        <v>175.8284081740017</v>
       </c>
       <c r="K12" t="n">
         <v>383.351899295424</v>
@@ -31862,7 +31862,7 @@
         <v>303.0413579893533</v>
       </c>
       <c r="R12" t="n">
-        <v>147.3973839917979</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>44.09634933634243</v>
@@ -32081,7 +32081,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
         <v>696.5971294879669</v>
@@ -32093,13 +32093,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>263.7973608852043</v>
+        <v>221.4417083481821</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486996</v>
@@ -32312,7 +32312,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
         <v>443.943509024727</v>
@@ -32321,7 +32321,7 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>151.0727449683545</v>
+        <v>645.1509001052086</v>
       </c>
       <c r="N18" t="n">
         <v>715.0339827160628</v>
@@ -32330,13 +32330,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32549,13 +32549,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
         <v>696.5971294879669</v>
@@ -32564,16 +32564,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>434.0683069289812</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>215.4343416764908</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32786,7 +32786,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>443.943509024727</v>
@@ -32801,16 +32801,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>366.6975250682018</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>215.4343416764908</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33029,19 +33029,19 @@
         <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155584</v>
+        <v>430.0264422644111</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>427.6151068264363</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
         <v>350.9392912691326</v>
@@ -33272,19 +33272,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>256.2010137373307</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33509,19 +33509,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O33" t="n">
-        <v>186.643369976408</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33746,19 +33746,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>559.3781234260266</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>135.7763377130026</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
@@ -33980,22 +33980,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>165.0055127797836</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
         <v>443.943509024727</v>
@@ -34229,10 +34229,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>281.2161430610879</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34457,16 +34457,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>577.6550422513128</v>
+        <v>559.3781234260266</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R45" t="n">
         <v>170.6946332877214</v>
@@ -34781,22 +34781,22 @@
         <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>237.9770422219166</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>53.46758630449617</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>59.51812925832903</v>
+        <v>59.51812925832894</v>
       </c>
       <c r="K5" t="n">
-        <v>211.1666960098845</v>
+        <v>211.1666960098844</v>
       </c>
       <c r="L5" t="n">
-        <v>314.7756333218941</v>
+        <v>314.7756333218939</v>
       </c>
       <c r="M5" t="n">
-        <v>367.0228311985004</v>
+        <v>367.0228311985002</v>
       </c>
       <c r="N5" t="n">
-        <v>358.1818488170273</v>
+        <v>358.1818488170271</v>
       </c>
       <c r="O5" t="n">
-        <v>292.5768843796675</v>
+        <v>292.5768843796673</v>
       </c>
       <c r="P5" t="n">
-        <v>211.6526695827606</v>
+        <v>211.6526695827604</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.94056282746806</v>
+        <v>80.94056282746794</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>199.3750256889813</v>
+        <v>199.3750256889812</v>
       </c>
       <c r="L6" t="n">
-        <v>330.1089691591598</v>
+        <v>164.5777209298578</v>
       </c>
       <c r="M6" t="n">
-        <v>437.7258610576989</v>
+        <v>437.7258610576987</v>
       </c>
       <c r="N6" t="n">
-        <v>465.1768321942865</v>
+        <v>465.1768321942863</v>
       </c>
       <c r="O6" t="n">
-        <v>65.32245163428416</v>
+        <v>358.459378099006</v>
       </c>
       <c r="P6" t="n">
-        <v>270.5204374257009</v>
+        <v>270.5204374257008</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.6056782354203</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.61376108781203</v>
+        <v>21.61376108781198</v>
       </c>
       <c r="L7" t="n">
-        <v>83.74548051466405</v>
+        <v>83.745480514664</v>
       </c>
       <c r="M7" t="n">
-        <v>98.79193095173424</v>
+        <v>98.79193095173417</v>
       </c>
       <c r="N7" t="n">
         <v>101.9323911817502</v>
       </c>
       <c r="O7" t="n">
-        <v>77.9729852146757</v>
+        <v>77.97298521467565</v>
       </c>
       <c r="P7" t="n">
-        <v>42.96109422293704</v>
+        <v>42.96109422293699</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>47.27290147950045</v>
+        <v>48.99078150733504</v>
       </c>
       <c r="K12" t="n">
         <v>245.510460321065</v>
@@ -35510,7 +35510,7 @@
         <v>163.0595839033318</v>
       </c>
       <c r="R12" t="n">
-        <v>1.717880027833957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>424.160143083758</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>450.5571079687834</v>
       </c>
       <c r="L14" t="n">
-        <v>992.7619906674382</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
         <v>671.8997542381569</v>
@@ -35665,10 +35665,10 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R14" t="n">
-        <v>153.6839361951373</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
         <v>554.4630955659486</v>
@@ -35741,13 +35741,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>123.8155867991828</v>
+        <v>81.45993426216059</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714631</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
@@ -35902,10 +35902,10 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>347.2227285314827</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>121.8316172527526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
         <v>306.102070050368</v>
@@ -35969,7 +35969,7 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>8.938711046336165</v>
+        <v>503.0168661831902</v>
       </c>
       <c r="N18" t="n">
         <v>583.6922706327296</v>
@@ -35978,13 +35978,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>276.0431317030919</v>
       </c>
       <c r="Q19" t="n">
-        <v>106.8400972119442</v>
+        <v>106.8400972119488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>966.963134267649</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
@@ -36136,13 +36136,13 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>524.6974143242925</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
@@ -36212,16 +36212,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>291.4720624845368</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>81.45993426216059</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,19 +36367,19 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>939.2772117568243</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>1016.452960397626</v>
       </c>
       <c r="P23" t="n">
         <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>544.8912574826563</v>
+        <v>350.2196608885849</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>306.102070050368</v>
@@ -36449,16 +36449,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>224.1012806237574</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>81.45993426216059</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714193</v>
       </c>
       <c r="K25" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L25" t="n">
-        <v>370.2625912295209</v>
+        <v>370.262591229521</v>
       </c>
       <c r="M25" t="n">
         <v>400.8840515372959</v>
@@ -36531,7 +36531,7 @@
         <v>350.3692208386573</v>
       </c>
       <c r="P25" t="n">
-        <v>276.0431317030919</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q25" t="n">
         <v>106.8400972119442</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116842</v>
+        <v>424.160143083758</v>
       </c>
       <c r="K26" t="n">
-        <v>448.1716001809143</v>
+        <v>450.5571079687844</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>1121.413287730989</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
         <v>687.4322072151681</v>
@@ -36613,10 +36613,10 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227516</v>
+        <v>544.8912574826563</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356842</v>
+        <v>291.4720624845369</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>296.273394743103</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
         <v>210.9575171831111</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>424.160143083758</v>
+        <v>329.3616906691002</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721831</v>
+        <v>757.6705510433478</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169878</v>
@@ -36844,7 +36844,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>930.7161591643708</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
         <v>507.665444827693</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.2192396513092</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O33" t="n">
-        <v>44.04712553196353</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>416.7818789815822</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.93871104633595</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37628,22 +37628,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>38.16788611311694</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
         <v>306.102070050368</v>
@@ -37877,10 +37877,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38105,16 +38105,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>435.0587978068684</v>
+        <v>416.7818789815822</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R45" t="n">
         <v>25.01512932375741</v>
